--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/20/seed1/result_data_RandomForest.xlsx
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.408199999999997</v>
+        <v>-7.361199999999996</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.771199999999999</v>
+        <v>-7.7225</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.639499999999999</v>
+        <v>-7.774999999999999</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -573,7 +573,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.407700000000004</v>
+        <v>-8.6751</v>
       </c>
       <c r="E8" t="n">
         <v>16.54</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.785300000000001</v>
+        <v>-8.511700000000003</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.129599999999993</v>
+        <v>-8.015299999999991</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.034099999999997</v>
+        <v>-7.894099999999994</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.988900000000001</v>
+        <v>-8.066599999999999</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.295699999999999</v>
+        <v>-7.334100000000002</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.305500000000004</v>
+        <v>-7.547600000000002</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-9.229499999999994</v>
+        <v>-9.180099999999999</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.288699999999995</v>
+        <v>-7.951599999999996</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.079899999999999</v>
+        <v>-8.080199999999996</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.7686</v>
+        <v>-7.674100000000001</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.588999999999998</v>
+        <v>-7.627999999999997</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.172799999999999</v>
+        <v>-8.252199999999995</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1440,7 +1440,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.2639</v>
+        <v>-8.287299999999998</v>
       </c>
       <c r="E59" t="n">
         <v>16.47</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-9.064599999999995</v>
+        <v>-9.086299999999989</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1559,7 +1559,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.143900000000001</v>
+        <v>-7.172800000000003</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.695699999999995</v>
+        <v>-7.456399999999993</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1695,7 +1695,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.313499999999999</v>
+        <v>-8.171900000000004</v>
       </c>
       <c r="E74" t="n">
         <v>16.1</v>
@@ -1746,7 +1746,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-5.776399999999998</v>
+        <v>-5.860199999999997</v>
       </c>
       <c r="E77" t="n">
         <v>17.96</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.216600000000001</v>
+        <v>-6.169400000000004</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.1447</v>
+        <v>-8.302400000000004</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
